--- a/datadescrip/datos_medicos.xlsx
+++ b/datadescrip/datos_medicos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1538bbb593332dbc/Escritorio/rstudio web/EstComputacional/estadistica parametrica y no parametrica/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Datos\datadescrip\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="11_59470185D9B8BB3C68417F3EE0D5D19A6E31D61C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4B63982-CDDF-430E-B778-AE5516DC1CF1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7B9242-DFB9-4947-8700-6593582949A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,10 +28,10 @@
     <t>PresionDiastolica</t>
   </si>
   <si>
-    <t>Presión</t>
+    <t>Valores</t>
   </si>
   <si>
-    <t>Valores</t>
+    <t>Presion</t>
   </si>
 </sst>
 </file>
@@ -386,9 +386,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -399,10 +397,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -2011,15 +2009,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="813c6cea-f2fb-4427-a64d-b0ab14ca4f89">
@@ -2028,6 +2017,15 @@
     <TaxCatchAll xmlns="8fd61bc4-84ce-4a27-8ce0-0ee27f357493" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2226,20 +2224,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F830896-7E8A-44AA-9FD8-46825A1BCE4B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78A74BE6-E95C-44AC-9A1D-952E86A6188A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="813c6cea-f2fb-4427-a64d-b0ab14ca4f89"/>
     <ds:schemaRef ds:uri="8fd61bc4-84ce-4a27-8ce0-0ee27f357493"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F830896-7E8A-44AA-9FD8-46825A1BCE4B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
